--- a/biology/Zoologie/Hormathiidae/Hormathiidae.xlsx
+++ b/biology/Zoologie/Hormathiidae/Hormathiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hormathiidae sont une famille d'anémones de mer de l'ordre des Actiniaria. Une partie de ces espèces sont symbiotiques de pagures, qui les entretiennent sur la coquille qu'ils habitent pour dissuader les prédateurs. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (7 octobre 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (7 octobre 2015) :
 genre Actinauge Verrill, 1883
 genre Adamsia Forbes, 1840
 genre Allantactis Danielssen, 1890
